--- a/data/pca/factorExposure/factorExposure_2009-06-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01735859109738484</v>
+        <v>0.01683580202016736</v>
       </c>
       <c r="C2">
-        <v>0.001619542395176263</v>
+        <v>0.001218424874567118</v>
       </c>
       <c r="D2">
-        <v>-0.0087587564795176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0090158424464871</v>
+      </c>
+      <c r="E2">
+        <v>-0.001901474597430725</v>
+      </c>
+      <c r="F2">
+        <v>0.01192951445029853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08972916859238803</v>
+        <v>0.0915621303962208</v>
       </c>
       <c r="C4">
-        <v>0.0198430736873545</v>
+        <v>0.01500521639710095</v>
       </c>
       <c r="D4">
-        <v>-0.07617289042367881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08136246954557083</v>
+      </c>
+      <c r="E4">
+        <v>-0.02717243222019208</v>
+      </c>
+      <c r="F4">
+        <v>-0.03115351565172102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.271116493381046e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-2.604458054034682e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-7.553744719673429e-05</v>
+      </c>
+      <c r="E5">
+        <v>5.491757308958295e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0001082449832265178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1528958628895022</v>
+        <v>0.161466664338183</v>
       </c>
       <c r="C6">
-        <v>0.03019531941512874</v>
+        <v>0.02941690135197941</v>
       </c>
       <c r="D6">
-        <v>0.03648481326005321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02638222372187563</v>
+      </c>
+      <c r="E6">
+        <v>-0.009730324823662925</v>
+      </c>
+      <c r="F6">
+        <v>-0.04038665821130785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06024374718553527</v>
+        <v>0.06231561846011175</v>
       </c>
       <c r="C7">
-        <v>0.001971727146277726</v>
+        <v>-0.001363065496404474</v>
       </c>
       <c r="D7">
-        <v>-0.04845644851419199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05359772483395106</v>
+      </c>
+      <c r="E7">
+        <v>-0.01486072234990921</v>
+      </c>
+      <c r="F7">
+        <v>-0.04920175535676828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06138378348497116</v>
+        <v>0.05704443454524624</v>
       </c>
       <c r="C8">
-        <v>-0.01007191530889943</v>
+        <v>-0.0119120645074126</v>
       </c>
       <c r="D8">
-        <v>-0.02491323764011082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02978985061326014</v>
+      </c>
+      <c r="E8">
+        <v>-0.01747562998194927</v>
+      </c>
+      <c r="F8">
+        <v>0.02754708514679549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06962510765514118</v>
+        <v>0.07120931818054199</v>
       </c>
       <c r="C9">
-        <v>0.01582762564728454</v>
+        <v>0.01063795379530705</v>
       </c>
       <c r="D9">
-        <v>-0.07891472898232603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08490244884387088</v>
+      </c>
+      <c r="E9">
+        <v>-0.02487929283530211</v>
+      </c>
+      <c r="F9">
+        <v>-0.04817043259461825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0847678704902973</v>
+        <v>0.08690016570376168</v>
       </c>
       <c r="C10">
-        <v>0.0159738770450705</v>
+        <v>0.02171267524526947</v>
       </c>
       <c r="D10">
-        <v>0.1675341247788051</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1593982360647607</v>
+      </c>
+      <c r="E10">
+        <v>0.03432709041819671</v>
+      </c>
+      <c r="F10">
+        <v>0.05840780447495254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09115683300346823</v>
+        <v>0.08778173143506418</v>
       </c>
       <c r="C11">
-        <v>0.01715247708552653</v>
+        <v>0.01184111272339045</v>
       </c>
       <c r="D11">
-        <v>-0.1102585520578859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171301574393137</v>
+      </c>
+      <c r="E11">
+        <v>-0.04885950121537335</v>
+      </c>
+      <c r="F11">
+        <v>-0.02494808639579835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09673875865537877</v>
+        <v>0.0906921954247782</v>
       </c>
       <c r="C12">
-        <v>0.0154491038492571</v>
+        <v>0.00931906734877818</v>
       </c>
       <c r="D12">
-        <v>-0.1172547950401929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318207754001017</v>
+      </c>
+      <c r="E12">
+        <v>-0.04937516781408396</v>
+      </c>
+      <c r="F12">
+        <v>-0.03156758516030918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04484070923353206</v>
+        <v>0.04358981416622056</v>
       </c>
       <c r="C13">
-        <v>0.006578127762139345</v>
+        <v>0.002736454415109898</v>
       </c>
       <c r="D13">
-        <v>-0.0433721680814044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05372381256107565</v>
+      </c>
+      <c r="E13">
+        <v>0.0001575814748533555</v>
+      </c>
+      <c r="F13">
+        <v>-0.004721110283119779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01950661973043969</v>
+        <v>0.02341859811957531</v>
       </c>
       <c r="C14">
-        <v>0.01513511909644834</v>
+        <v>0.01384938174980163</v>
       </c>
       <c r="D14">
-        <v>-0.03167714649734978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03221366729394465</v>
+      </c>
+      <c r="E14">
+        <v>-0.01895170772022711</v>
+      </c>
+      <c r="F14">
+        <v>-0.01167205800162791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03459362365890937</v>
+        <v>0.03419919512513312</v>
       </c>
       <c r="C15">
-        <v>0.007558277759836653</v>
+        <v>0.005582997336569791</v>
       </c>
       <c r="D15">
-        <v>-0.04508224943291857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0465858227985365</v>
+      </c>
+      <c r="E15">
+        <v>-0.008794195905989687</v>
+      </c>
+      <c r="F15">
+        <v>-0.02931316879543473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07507653618650315</v>
+        <v>0.07260530195004145</v>
       </c>
       <c r="C16">
-        <v>0.007608073136213787</v>
+        <v>0.001963033789210262</v>
       </c>
       <c r="D16">
-        <v>-0.1147518684571131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278802474172259</v>
+      </c>
+      <c r="E16">
+        <v>-0.06326005185872526</v>
+      </c>
+      <c r="F16">
+        <v>-0.02772451286466271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001091090015180749</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003145473317944866</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001942552445125004</v>
+      </c>
+      <c r="E17">
+        <v>-0.001454944734440255</v>
+      </c>
+      <c r="F17">
+        <v>0.002318716941867647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02407043597446333</v>
+        <v>0.04148900203907903</v>
       </c>
       <c r="C18">
-        <v>-0.002069020442175138</v>
+        <v>-0.002202702063706475</v>
       </c>
       <c r="D18">
-        <v>-0.022561999937518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01559544197124356</v>
+      </c>
+      <c r="E18">
+        <v>0.005411212720535838</v>
+      </c>
+      <c r="F18">
+        <v>0.009199701544939412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06382088365892463</v>
+        <v>0.06210724573530718</v>
       </c>
       <c r="C20">
-        <v>0.00516368192054106</v>
+        <v>0.001189956058183236</v>
       </c>
       <c r="D20">
-        <v>-0.07206799101332288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07892597564581713</v>
+      </c>
+      <c r="E20">
+        <v>-0.0588482325131135</v>
+      </c>
+      <c r="F20">
+        <v>-0.02946884061772097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04100569987595922</v>
+        <v>0.04212467377768316</v>
       </c>
       <c r="C21">
-        <v>0.009828328157371941</v>
+        <v>0.006909594434416117</v>
       </c>
       <c r="D21">
-        <v>-0.03226109864086903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03580869696171713</v>
+      </c>
+      <c r="E21">
+        <v>0.0004151450174445695</v>
+      </c>
+      <c r="F21">
+        <v>0.02416243452524605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04126492361191422</v>
+        <v>0.04335469364413028</v>
       </c>
       <c r="C22">
-        <v>0.001518598034853542</v>
+        <v>0.001167866490185166</v>
       </c>
       <c r="D22">
-        <v>-0.0009020612148415178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007321248675829628</v>
+      </c>
+      <c r="E22">
+        <v>-0.03777547769361264</v>
+      </c>
+      <c r="F22">
+        <v>0.04798552409220183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04122725060032449</v>
+        <v>0.04333015161671503</v>
       </c>
       <c r="C23">
-        <v>0.00150759469823015</v>
+        <v>0.001158571875569608</v>
       </c>
       <c r="D23">
-        <v>-0.0009266227405951073</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007335029649113327</v>
+      </c>
+      <c r="E23">
+        <v>-0.03795993681232351</v>
+      </c>
+      <c r="F23">
+        <v>0.04795841485898882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08244884024751759</v>
+        <v>0.07838257575709764</v>
       </c>
       <c r="C24">
-        <v>0.008237093346047095</v>
+        <v>0.00278489731370854</v>
       </c>
       <c r="D24">
-        <v>-0.1143539433874829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.120025903342505</v>
+      </c>
+      <c r="E24">
+        <v>-0.05088109168520457</v>
+      </c>
+      <c r="F24">
+        <v>-0.03043857325920489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08720408835270127</v>
+        <v>0.0835541573459499</v>
       </c>
       <c r="C25">
-        <v>0.01052584775067849</v>
+        <v>0.005537224764202079</v>
       </c>
       <c r="D25">
-        <v>-0.102136294712641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092969059410823</v>
+      </c>
+      <c r="E25">
+        <v>-0.03395053411015275</v>
+      </c>
+      <c r="F25">
+        <v>-0.02783837133781971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05769835709158272</v>
+        <v>0.06009453125570535</v>
       </c>
       <c r="C26">
-        <v>0.01805586312891416</v>
+        <v>0.014791961198339</v>
       </c>
       <c r="D26">
-        <v>-0.03323427139473828</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04370688072523377</v>
+      </c>
+      <c r="E26">
+        <v>-0.03093412197047415</v>
+      </c>
+      <c r="F26">
+        <v>0.007723432860921357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1326504557506485</v>
+        <v>0.1423981449890095</v>
       </c>
       <c r="C28">
-        <v>0.01497125127817305</v>
+        <v>0.02364459190695237</v>
       </c>
       <c r="D28">
-        <v>0.2659093774281793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2599294253006736</v>
+      </c>
+      <c r="E28">
+        <v>0.0688812688120618</v>
+      </c>
+      <c r="F28">
+        <v>-0.004706283934097328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02585231060030516</v>
+        <v>0.02847136624598251</v>
       </c>
       <c r="C29">
-        <v>0.009817824602242365</v>
+        <v>0.009044700904621306</v>
       </c>
       <c r="D29">
-        <v>-0.02981239108881517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02993218957957296</v>
+      </c>
+      <c r="E29">
+        <v>-0.01422955100503273</v>
+      </c>
+      <c r="F29">
+        <v>0.01377903946249602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05989660710031594</v>
+        <v>0.05661747819875457</v>
       </c>
       <c r="C30">
-        <v>0.007952416871099077</v>
+        <v>0.002642121643056401</v>
       </c>
       <c r="D30">
-        <v>-0.07980290229566768</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08794998266608882</v>
+      </c>
+      <c r="E30">
+        <v>-0.01613379243118165</v>
+      </c>
+      <c r="F30">
+        <v>-0.07858279852946577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05068553888866161</v>
+        <v>0.0510971693474945</v>
       </c>
       <c r="C31">
-        <v>0.01754798737155501</v>
+        <v>0.01630919732548183</v>
       </c>
       <c r="D31">
-        <v>-0.02122419293949311</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0239800843874767</v>
+      </c>
+      <c r="E31">
+        <v>-0.02831522723713401</v>
+      </c>
+      <c r="F31">
+        <v>0.0008391801527785466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04801104897493048</v>
+        <v>0.05193485393727083</v>
       </c>
       <c r="C32">
-        <v>0.002194641164095316</v>
+        <v>-0.001212067582073179</v>
       </c>
       <c r="D32">
-        <v>-0.02979801461557935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03402961822323787</v>
+      </c>
+      <c r="E32">
+        <v>-0.03372599735047217</v>
+      </c>
+      <c r="F32">
+        <v>-0.002721200880216905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09046982158271188</v>
+        <v>0.08965621681455378</v>
       </c>
       <c r="C33">
-        <v>0.01348876847224747</v>
+        <v>0.007596196716120504</v>
       </c>
       <c r="D33">
-        <v>-0.08901494481391689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1031736708982384</v>
+      </c>
+      <c r="E33">
+        <v>-0.0474695560122149</v>
+      </c>
+      <c r="F33">
+        <v>-0.04351337253886548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06921616884036193</v>
+        <v>0.06727590600189369</v>
       </c>
       <c r="C34">
-        <v>0.0156738348870591</v>
+        <v>0.01089771782695012</v>
       </c>
       <c r="D34">
-        <v>-0.0962244753271902</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083213794923411</v>
+      </c>
+      <c r="E34">
+        <v>-0.03679465001189283</v>
+      </c>
+      <c r="F34">
+        <v>-0.03516771569759888</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02564101309345969</v>
+        <v>0.02688905835637623</v>
       </c>
       <c r="C35">
-        <v>0.003925672905684586</v>
+        <v>0.00340953142287481</v>
       </c>
       <c r="D35">
-        <v>-0.008311159205221354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01202903066394289</v>
+      </c>
+      <c r="E35">
+        <v>-0.01370741640530725</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004126952148947644</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02499725466071907</v>
+        <v>0.02865487690292034</v>
       </c>
       <c r="C36">
-        <v>0.008122683197936518</v>
+        <v>0.007123742765710252</v>
       </c>
       <c r="D36">
-        <v>-0.03838699465990712</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03923015727147221</v>
+      </c>
+      <c r="E36">
+        <v>-0.0179560802867037</v>
+      </c>
+      <c r="F36">
+        <v>-0.01455183419767928</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001767910132614227</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007238130758572066</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002938934094701565</v>
+      </c>
+      <c r="E37">
+        <v>-0.0002287133783191274</v>
+      </c>
+      <c r="F37">
+        <v>0.001643641469774386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1112140681644353</v>
+        <v>0.1000061914035905</v>
       </c>
       <c r="C39">
-        <v>0.02314043941209686</v>
+        <v>0.01661212719563308</v>
       </c>
       <c r="D39">
-        <v>-0.1471530149933256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1508371549268224</v>
+      </c>
+      <c r="E39">
+        <v>-0.06071048769483851</v>
+      </c>
+      <c r="F39">
+        <v>-0.02171169237973376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03906798707623648</v>
+        <v>0.04413546835644918</v>
       </c>
       <c r="C40">
-        <v>0.009506786555741645</v>
+        <v>0.007978194572276241</v>
       </c>
       <c r="D40">
-        <v>-0.02387231897011569</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03281147902920802</v>
+      </c>
+      <c r="E40">
+        <v>-0.003089253057601301</v>
+      </c>
+      <c r="F40">
+        <v>0.01503770900721246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02465809781068159</v>
+        <v>0.02654422643562179</v>
       </c>
       <c r="C41">
-        <v>0.007377517678511413</v>
+        <v>0.006844997657816493</v>
       </c>
       <c r="D41">
-        <v>-0.007832852379651263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009974606421770112</v>
+      </c>
+      <c r="E41">
+        <v>-0.01137660245650216</v>
+      </c>
+      <c r="F41">
+        <v>0.007644116296219683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04187706649077436</v>
+        <v>0.04000405117062337</v>
       </c>
       <c r="C43">
-        <v>0.008583187155091663</v>
+        <v>0.007866815629876076</v>
       </c>
       <c r="D43">
-        <v>-0.01627320089960168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01885242347927728</v>
+      </c>
+      <c r="E43">
+        <v>-0.02580988326874287</v>
+      </c>
+      <c r="F43">
+        <v>0.01618683937535374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06854823470173395</v>
+        <v>0.07772156114603794</v>
       </c>
       <c r="C44">
-        <v>0.02426608932888564</v>
+        <v>0.02003309108986972</v>
       </c>
       <c r="D44">
-        <v>-0.09514760164662976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09618215257359583</v>
+      </c>
+      <c r="E44">
+        <v>-0.06245605156351256</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678232247799737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02130436692609556</v>
+        <v>0.0241801867423752</v>
       </c>
       <c r="C46">
-        <v>0.004412144362449459</v>
+        <v>0.003654995106736184</v>
       </c>
       <c r="D46">
-        <v>-0.009089241405544974</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01220037397584643</v>
+      </c>
+      <c r="E46">
+        <v>-0.02696112857037304</v>
+      </c>
+      <c r="F46">
+        <v>0.005483813422805318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05373239165492628</v>
+        <v>0.05291392420815479</v>
       </c>
       <c r="C47">
-        <v>0.005609006330114411</v>
+        <v>0.004764893588065803</v>
       </c>
       <c r="D47">
-        <v>-0.007020047311149353</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01090369531803611</v>
+      </c>
+      <c r="E47">
+        <v>-0.02377522385264094</v>
+      </c>
+      <c r="F47">
+        <v>0.03160581422191172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04852109272773017</v>
+        <v>0.05104067218534755</v>
       </c>
       <c r="C48">
-        <v>0.005157224975745793</v>
+        <v>0.002550814515130932</v>
       </c>
       <c r="D48">
-        <v>-0.04675765488640737</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04976321382194342</v>
+      </c>
+      <c r="E48">
+        <v>0.003512464470260873</v>
+      </c>
+      <c r="F48">
+        <v>-0.0128114004314194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1983878893693338</v>
+        <v>0.1999190858007655</v>
       </c>
       <c r="C49">
-        <v>0.02313587601101119</v>
+        <v>0.02144461386122794</v>
       </c>
       <c r="D49">
-        <v>0.01524096366760527</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005705053399990377</v>
+      </c>
+      <c r="E49">
+        <v>-0.03274991110505635</v>
+      </c>
+      <c r="F49">
+        <v>-0.04834753494228302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04914686325575335</v>
+        <v>0.05116185686596082</v>
       </c>
       <c r="C50">
-        <v>0.01319330539040729</v>
+        <v>0.01191897096293183</v>
       </c>
       <c r="D50">
-        <v>-0.02095211157483198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02330462627551427</v>
+      </c>
+      <c r="E50">
+        <v>-0.03011572861889389</v>
+      </c>
+      <c r="F50">
+        <v>-0.009163489802184821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552346766571811</v>
+        <v>0.1482551587651913</v>
       </c>
       <c r="C52">
-        <v>0.02143611308476888</v>
+        <v>0.01944971426188655</v>
       </c>
       <c r="D52">
-        <v>-0.04129488258066408</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04251395407200908</v>
+      </c>
+      <c r="E52">
+        <v>-0.02235946230191562</v>
+      </c>
+      <c r="F52">
+        <v>-0.04197521844454374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1745302543300512</v>
+        <v>0.1687093834367482</v>
       </c>
       <c r="C53">
-        <v>0.02245638001489518</v>
+        <v>0.0225239157203706</v>
       </c>
       <c r="D53">
-        <v>-0.005859721576669892</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005856225001796347</v>
+      </c>
+      <c r="E53">
+        <v>-0.02978199790558241</v>
+      </c>
+      <c r="F53">
+        <v>-0.07502800854398078</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01777651370516077</v>
+        <v>0.01962677500674861</v>
       </c>
       <c r="C54">
-        <v>0.01230897146806433</v>
+        <v>0.0111333366813251</v>
       </c>
       <c r="D54">
-        <v>-0.02989411188165287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0305446169231591</v>
+      </c>
+      <c r="E54">
+        <v>-0.02060292689822904</v>
+      </c>
+      <c r="F54">
+        <v>0.002584311005876253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1184952908412557</v>
+        <v>0.1167525925956086</v>
       </c>
       <c r="C55">
-        <v>0.01982932290361563</v>
+        <v>0.01978906248541589</v>
       </c>
       <c r="D55">
-        <v>-0.004674633501124911</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008267365300703712</v>
+      </c>
+      <c r="E55">
+        <v>-0.02701407464802814</v>
+      </c>
+      <c r="F55">
+        <v>-0.04667260051173912</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808869493861257</v>
+        <v>0.1758500771473922</v>
       </c>
       <c r="C56">
-        <v>0.02049168212445757</v>
+        <v>0.02076678165137322</v>
       </c>
       <c r="D56">
-        <v>0.007476903415917302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002955297539899231</v>
+      </c>
+      <c r="E56">
+        <v>-0.03276645510211203</v>
+      </c>
+      <c r="F56">
+        <v>-0.05546826311848968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04737323302721273</v>
+        <v>0.04598717582100102</v>
       </c>
       <c r="C58">
-        <v>0.005194339145396525</v>
+        <v>0.0003190099937160982</v>
       </c>
       <c r="D58">
-        <v>-0.06650190758482441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07593611859472897</v>
+      </c>
+      <c r="E58">
+        <v>-0.03643695609606955</v>
+      </c>
+      <c r="F58">
+        <v>0.03788513081022823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1589417816714745</v>
+        <v>0.1658586204782139</v>
       </c>
       <c r="C59">
-        <v>0.01663885191870676</v>
+        <v>0.02382100484149759</v>
       </c>
       <c r="D59">
-        <v>0.2260046179133959</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2177018955759801</v>
+      </c>
+      <c r="E59">
+        <v>0.05048303459405161</v>
+      </c>
+      <c r="F59">
+        <v>0.03987361997603674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383418553973272</v>
+        <v>0.2302313452714564</v>
       </c>
       <c r="C60">
-        <v>0.004601175700248645</v>
+        <v>0.001538974957605106</v>
       </c>
       <c r="D60">
-        <v>-0.03459145635183543</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03795027944811456</v>
+      </c>
+      <c r="E60">
+        <v>-0.004380820459069045</v>
+      </c>
+      <c r="F60">
+        <v>-0.006430491387636635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08153067568747445</v>
+        <v>0.07471340742265987</v>
       </c>
       <c r="C61">
-        <v>0.01681347246866265</v>
+        <v>0.01133931183341205</v>
       </c>
       <c r="D61">
-        <v>-0.1098812086531894</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1160908338176658</v>
+      </c>
+      <c r="E61">
+        <v>-0.038408444338105</v>
+      </c>
+      <c r="F61">
+        <v>-0.007912177713230042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1730803103855686</v>
+        <v>0.1691081742071028</v>
       </c>
       <c r="C62">
-        <v>0.0243167063532865</v>
+        <v>0.02357021781452763</v>
       </c>
       <c r="D62">
-        <v>0.0005271255504790015</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005937189066126904</v>
+      </c>
+      <c r="E62">
+        <v>-0.03454506752065929</v>
+      </c>
+      <c r="F62">
+        <v>-0.04138905178688383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04168370872885574</v>
+        <v>0.04572911244364887</v>
       </c>
       <c r="C63">
-        <v>0.00546873802325696</v>
+        <v>0.002090470460057272</v>
       </c>
       <c r="D63">
-        <v>-0.04865949187936226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05955905395981907</v>
+      </c>
+      <c r="E63">
+        <v>-0.02432360928109069</v>
+      </c>
+      <c r="F63">
+        <v>-0.0006169888377785128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141696768565092</v>
+        <v>0.1110944952440003</v>
       </c>
       <c r="C64">
-        <v>0.01648685802105374</v>
+        <v>0.0133647275729469</v>
       </c>
       <c r="D64">
-        <v>-0.03330088399701654</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04194578244901589</v>
+      </c>
+      <c r="E64">
+        <v>-0.02451571983715208</v>
+      </c>
+      <c r="F64">
+        <v>-0.02673400198167707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1446588913838696</v>
+        <v>0.1517216347276473</v>
       </c>
       <c r="C65">
-        <v>0.03634910818760567</v>
+        <v>0.03624958890779485</v>
       </c>
       <c r="D65">
-        <v>0.0593004733549413</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04618389194285569</v>
+      </c>
+      <c r="E65">
+        <v>-0.005880193987487334</v>
+      </c>
+      <c r="F65">
+        <v>-0.03782135111467221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1337395274634121</v>
+        <v>0.1199446364913956</v>
       </c>
       <c r="C66">
-        <v>0.02157746717864244</v>
+        <v>0.01486255030325812</v>
       </c>
       <c r="D66">
-        <v>-0.1295881354492897</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1398940043769885</v>
+      </c>
+      <c r="E66">
+        <v>-0.06516719892654824</v>
+      </c>
+      <c r="F66">
+        <v>-0.02731416452846498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06380999944236521</v>
+        <v>0.05641944641087764</v>
       </c>
       <c r="C67">
-        <v>0.006399488273911138</v>
+        <v>0.004042576643078511</v>
       </c>
       <c r="D67">
-        <v>-0.05406477541182961</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05780165836218722</v>
+      </c>
+      <c r="E67">
+        <v>-0.02073129449691519</v>
+      </c>
+      <c r="F67">
+        <v>0.03448254752325661</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1059456624920938</v>
+        <v>0.1168092090863793</v>
       </c>
       <c r="C68">
-        <v>0.02501696229946626</v>
+        <v>0.03442120018267375</v>
       </c>
       <c r="D68">
-        <v>0.2641962903467153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610631410616697</v>
+      </c>
+      <c r="E68">
+        <v>0.09018484317354965</v>
+      </c>
+      <c r="F68">
+        <v>-0.0009817821178423457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03857662933052002</v>
+        <v>0.0376769993133302</v>
       </c>
       <c r="C69">
-        <v>0.002169511683010337</v>
+        <v>0.001341331184802905</v>
       </c>
       <c r="D69">
-        <v>-0.007192070031103416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008646923210123836</v>
+      </c>
+      <c r="E69">
+        <v>-0.02439080949212205</v>
+      </c>
+      <c r="F69">
+        <v>0.0003945834897672139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06759608221084455</v>
+        <v>0.06721358418143623</v>
       </c>
       <c r="C70">
-        <v>-0.02421545328191695</v>
+        <v>-0.02637633491397318</v>
       </c>
       <c r="D70">
-        <v>-0.02111232843380495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02693091168652034</v>
+      </c>
+      <c r="E70">
+        <v>0.02583082256332582</v>
+      </c>
+      <c r="F70">
+        <v>0.1807006906879008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1248878945287657</v>
+        <v>0.1369690663946437</v>
       </c>
       <c r="C71">
-        <v>0.02973337126831148</v>
+        <v>0.03904475216488203</v>
       </c>
       <c r="D71">
-        <v>0.2805609631082115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2705906889404188</v>
+      </c>
+      <c r="E71">
+        <v>0.09913630642905946</v>
+      </c>
+      <c r="F71">
+        <v>-0.006828267459976698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1367387362467473</v>
+        <v>0.143894675772313</v>
       </c>
       <c r="C72">
-        <v>0.02887239866100189</v>
+        <v>0.02926278992564995</v>
       </c>
       <c r="D72">
-        <v>-0.0005192686460136062</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003739712277469483</v>
+      </c>
+      <c r="E72">
+        <v>-0.03962473926652563</v>
+      </c>
+      <c r="F72">
+        <v>-0.02741603812832399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2035287443370529</v>
+        <v>0.2036725088994447</v>
       </c>
       <c r="C73">
-        <v>0.0181732326877502</v>
+        <v>0.01466994938032231</v>
       </c>
       <c r="D73">
-        <v>-0.006831912437080699</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01764328630799519</v>
+      </c>
+      <c r="E73">
+        <v>-0.06688905896822998</v>
+      </c>
+      <c r="F73">
+        <v>-0.04401692216451044</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09176582125650874</v>
+        <v>0.09282816960809301</v>
       </c>
       <c r="C74">
-        <v>0.01487334296748271</v>
+        <v>0.0142848502964245</v>
       </c>
       <c r="D74">
-        <v>-0.01490404627879374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01694556367858144</v>
+      </c>
+      <c r="E74">
+        <v>-0.04340781077538639</v>
+      </c>
+      <c r="F74">
+        <v>-0.05236877470516649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1336865316321017</v>
+        <v>0.1260258661514333</v>
       </c>
       <c r="C75">
-        <v>0.0320803317961809</v>
+        <v>0.03035467506472738</v>
       </c>
       <c r="D75">
-        <v>-0.02297129552444191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02925648234111102</v>
+      </c>
+      <c r="E75">
+        <v>-0.05745978814335366</v>
+      </c>
+      <c r="F75">
+        <v>-0.02152049682980653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08189675937375615</v>
+        <v>0.09216855475514192</v>
       </c>
       <c r="C77">
-        <v>0.0142928135664828</v>
+        <v>0.008920743371343829</v>
       </c>
       <c r="D77">
-        <v>-0.1126808367410066</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1162509124899186</v>
+      </c>
+      <c r="E77">
+        <v>-0.04934874587358817</v>
+      </c>
+      <c r="F77">
+        <v>-0.03608973352367612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1023351946359646</v>
+        <v>0.1020230434245941</v>
       </c>
       <c r="C78">
-        <v>0.04481723772967989</v>
+        <v>0.04036679820549277</v>
       </c>
       <c r="D78">
-        <v>-0.1111494996784899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1111063976754151</v>
+      </c>
+      <c r="E78">
+        <v>-0.07901922906501457</v>
+      </c>
+      <c r="F78">
+        <v>-0.05204385939013139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1666981305924832</v>
+        <v>0.163429414135314</v>
       </c>
       <c r="C79">
-        <v>0.02701195110679849</v>
+        <v>0.02588655601328253</v>
       </c>
       <c r="D79">
-        <v>-0.005381006909831888</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01154463891462916</v>
+      </c>
+      <c r="E79">
+        <v>-0.04389220710344336</v>
+      </c>
+      <c r="F79">
+        <v>-0.01304331964704743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08166728245274099</v>
+        <v>0.07994603485907083</v>
       </c>
       <c r="C80">
-        <v>0.002807952897459271</v>
+        <v>4.675202464192163e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05262264612785948</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05385275779694834</v>
+      </c>
+      <c r="E80">
+        <v>-0.03535942171048102</v>
+      </c>
+      <c r="F80">
+        <v>0.02659668628521723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.121016808184759</v>
+        <v>0.1161035599760345</v>
       </c>
       <c r="C81">
-        <v>0.0341471501347729</v>
+        <v>0.03377298578540505</v>
       </c>
       <c r="D81">
-        <v>-0.00745625422627615</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01191357600423516</v>
+      </c>
+      <c r="E81">
+        <v>-0.0525294662603662</v>
+      </c>
+      <c r="F81">
+        <v>-0.01751934785347228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1662805799875064</v>
+        <v>0.1649522932613363</v>
       </c>
       <c r="C82">
-        <v>0.0275938679279248</v>
+        <v>0.02816183533073119</v>
       </c>
       <c r="D82">
-        <v>-0.004772118057361799</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002880339883579823</v>
+      </c>
+      <c r="E82">
+        <v>-0.02830990510721878</v>
+      </c>
+      <c r="F82">
+        <v>-0.08285197237464816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06385038092368353</v>
+        <v>0.0575830877120902</v>
       </c>
       <c r="C83">
-        <v>0.006257101171370389</v>
+        <v>0.003863724599381722</v>
       </c>
       <c r="D83">
-        <v>-0.04378362796188989</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04692732907559841</v>
+      </c>
+      <c r="E83">
+        <v>-0.003009281289173127</v>
+      </c>
+      <c r="F83">
+        <v>0.03641935376945719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06138816249173407</v>
+        <v>0.05561564091140409</v>
       </c>
       <c r="C84">
-        <v>0.01387336548429417</v>
+        <v>0.01118911923621712</v>
       </c>
       <c r="D84">
-        <v>-0.06879369326474598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07224114554925429</v>
+      </c>
+      <c r="E84">
+        <v>-0.01373917471681779</v>
+      </c>
+      <c r="F84">
+        <v>-0.01489465955902601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396716495204488</v>
+        <v>0.1350399663092055</v>
       </c>
       <c r="C85">
-        <v>0.03098909722574421</v>
+        <v>0.03060226976849158</v>
       </c>
       <c r="D85">
-        <v>-0.006183057164388894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008991804192655713</v>
+      </c>
+      <c r="E85">
+        <v>-0.0362355550619583</v>
+      </c>
+      <c r="F85">
+        <v>-0.04842102930529793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1000073325132923</v>
+        <v>0.09298017503909392</v>
       </c>
       <c r="C86">
-        <v>-0.00195554950892135</v>
+        <v>-0.005198909522655735</v>
       </c>
       <c r="D86">
-        <v>-0.01428291263045416</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05027149494847848</v>
+      </c>
+      <c r="E86">
+        <v>-0.2225476801830568</v>
+      </c>
+      <c r="F86">
+        <v>0.8983015925694277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09651756017300607</v>
+        <v>0.09259730531053467</v>
       </c>
       <c r="C87">
-        <v>0.02858558139685836</v>
+        <v>0.02028001781722706</v>
       </c>
       <c r="D87">
-        <v>-0.07301335023255305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0948660926639235</v>
+      </c>
+      <c r="E87">
+        <v>0.05229114728731604</v>
+      </c>
+      <c r="F87">
+        <v>-0.04988855670607961</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0626168610906214</v>
+        <v>0.06084988990605043</v>
       </c>
       <c r="C88">
-        <v>0.005749079077239613</v>
+        <v>0.002959341724187958</v>
       </c>
       <c r="D88">
-        <v>-0.04892973805693673</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04937887441918468</v>
+      </c>
+      <c r="E88">
+        <v>-0.02489001276943063</v>
+      </c>
+      <c r="F88">
+        <v>-0.01396755415971314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1166958378485476</v>
+        <v>0.1265281858576521</v>
       </c>
       <c r="C89">
-        <v>0.005913707565889311</v>
+        <v>0.01445587409121426</v>
       </c>
       <c r="D89">
-        <v>0.2416145094155422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2423708337935182</v>
+      </c>
+      <c r="E89">
+        <v>0.09133704080458872</v>
+      </c>
+      <c r="F89">
+        <v>0.007671739533328534</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1372486265714054</v>
+        <v>0.1523248617433284</v>
       </c>
       <c r="C90">
-        <v>0.02612982737401339</v>
+        <v>0.03591332860592028</v>
       </c>
       <c r="D90">
-        <v>0.2670010825627969</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.267767377177122</v>
+      </c>
+      <c r="E90">
+        <v>0.1151652500410264</v>
+      </c>
+      <c r="F90">
+        <v>0.008181278943207798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.121477472593956</v>
+        <v>0.1197552754626389</v>
       </c>
       <c r="C91">
-        <v>0.02161998803932589</v>
+        <v>0.02196268890511865</v>
       </c>
       <c r="D91">
-        <v>0.02056053382389594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0172993079753247</v>
+      </c>
+      <c r="E91">
+        <v>-0.05351795271630134</v>
+      </c>
+      <c r="F91">
+        <v>0.001839664767725113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1377204577396037</v>
+        <v>0.144881817654757</v>
       </c>
       <c r="C92">
-        <v>0.01673351352663814</v>
+        <v>0.0267065406110704</v>
       </c>
       <c r="D92">
-        <v>0.2985474886475313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2930854050870465</v>
+      </c>
+      <c r="E92">
+        <v>0.1031283181204076</v>
+      </c>
+      <c r="F92">
+        <v>0.01762337430692064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1400901227349322</v>
+        <v>0.1533592139265039</v>
       </c>
       <c r="C93">
-        <v>0.0222395772189846</v>
+        <v>0.0309684362426994</v>
       </c>
       <c r="D93">
-        <v>0.2666759420910769</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2642106995777056</v>
+      </c>
+      <c r="E93">
+        <v>0.07680263320963575</v>
+      </c>
+      <c r="F93">
+        <v>-0.003076956327294411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1336919670076806</v>
+        <v>0.1259253040613801</v>
       </c>
       <c r="C94">
-        <v>0.02854423740193566</v>
+        <v>0.02639036411916102</v>
       </c>
       <c r="D94">
-        <v>-0.03751576629571201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04074258239985586</v>
+      </c>
+      <c r="E94">
+        <v>-0.05813346886259583</v>
+      </c>
+      <c r="F94">
+        <v>-0.03163889472277347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.128262585481014</v>
+        <v>0.1303290224305123</v>
       </c>
       <c r="C95">
-        <v>0.01092755196188708</v>
+        <v>0.0055072415489046</v>
       </c>
       <c r="D95">
-        <v>-0.08671773659759004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09726581720994258</v>
+      </c>
+      <c r="E95">
+        <v>-0.05775519919850135</v>
+      </c>
+      <c r="F95">
+        <v>-0.002991518294602197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1295935696202448</v>
+        <v>0.1230677895761959</v>
       </c>
       <c r="C96">
-        <v>-0.9858811283544519</v>
+        <v>-0.9856426976571131</v>
       </c>
       <c r="D96">
-        <v>0.0190367428456212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05113063145257422</v>
+      </c>
+      <c r="E96">
+        <v>-0.05111388634846101</v>
+      </c>
+      <c r="F96">
+        <v>-0.04219666444040344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.194854622770497</v>
+        <v>0.1982913515129847</v>
       </c>
       <c r="C97">
-        <v>-0.002242103196163267</v>
+        <v>-0.002410552842950119</v>
       </c>
       <c r="D97">
-        <v>0.02344156571538758</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02419672109124804</v>
+      </c>
+      <c r="E97">
+        <v>-0.02125762951949286</v>
+      </c>
+      <c r="F97">
+        <v>0.1214417916613951</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2009523595697346</v>
+        <v>0.2067128451260559</v>
       </c>
       <c r="C98">
-        <v>0.01343851134243529</v>
+        <v>0.009595463170509088</v>
       </c>
       <c r="D98">
-        <v>-0.01280078473457203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01478530198608515</v>
+      </c>
+      <c r="E98">
+        <v>0.0739234175408628</v>
+      </c>
+      <c r="F98">
+        <v>0.09135412546018605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05614175722776016</v>
+        <v>0.05532043038281473</v>
       </c>
       <c r="C99">
-        <v>-0.001500164407794984</v>
+        <v>-0.003573847257831878</v>
       </c>
       <c r="D99">
-        <v>-0.03145290466977074</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03897495317672735</v>
+      </c>
+      <c r="E99">
+        <v>-0.0224668620681826</v>
+      </c>
+      <c r="F99">
+        <v>-0.002934211259066119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1481561525734306</v>
+        <v>0.1333040669023327</v>
       </c>
       <c r="C100">
-        <v>-0.03677557111760062</v>
+        <v>-0.04929060810768138</v>
       </c>
       <c r="D100">
-        <v>-0.3934644516933218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3589628946105999</v>
+      </c>
+      <c r="E100">
+        <v>0.8833400388911983</v>
+      </c>
+      <c r="F100">
+        <v>0.1489002933945639</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02586893900790895</v>
+        <v>0.0285283272322009</v>
       </c>
       <c r="C101">
-        <v>0.009838287954006097</v>
+        <v>0.009075296139961286</v>
       </c>
       <c r="D101">
-        <v>-0.02945401591815375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0295665280229355</v>
+      </c>
+      <c r="E101">
+        <v>-0.01369773428501506</v>
+      </c>
+      <c r="F101">
+        <v>0.01513481390631026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
